--- a/DummyData/DummyData.xlsx
+++ b/DummyData/DummyData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="150">
   <si>
     <t>name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Through The Loops</t>
   </si>
   <si>
-    <t>image-url</t>
-  </si>
-  <si>
     <t>Shawl</t>
   </si>
   <si>
@@ -426,6 +423,57 @@
   </si>
   <si>
     <t>730 - 1260</t>
+  </si>
+  <si>
+    <t>4, 6</t>
+  </si>
+  <si>
+    <t>3.5, 6.0</t>
+  </si>
+  <si>
+    <t>3, 2, 1</t>
+  </si>
+  <si>
+    <t>3.25, 2.75, 2.25</t>
+  </si>
+  <si>
+    <t>6, 5.5</t>
+  </si>
+  <si>
+    <t>10, 9</t>
+  </si>
+  <si>
+    <t>1 1/2, 2 1/2</t>
+  </si>
+  <si>
+    <t>2.5, 3.0</t>
+  </si>
+  <si>
+    <t>0, 1 1/2</t>
+  </si>
+  <si>
+    <t>2.0, 2.5</t>
+  </si>
+  <si>
+    <t>"4.0"</t>
+  </si>
+  <si>
+    <t>"5.0"</t>
+  </si>
+  <si>
+    <t>"3.0"</t>
+  </si>
+  <si>
+    <t>"9.0"</t>
+  </si>
+  <si>
+    <t>"6.0"</t>
+  </si>
+  <si>
+    <t>image1</t>
+  </si>
+  <si>
+    <t>image2</t>
   </si>
 </sst>
 </file>
@@ -777,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -796,31 +844,31 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,31 +879,31 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,31 +914,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,34 +946,34 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,39 +981,39 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -973,8 +1021,8 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>4</v>
+      <c r="D7" t="s">
+        <v>133</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -988,328 +1036,439 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
       </c>
       <c r="K7">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>4.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8">
+        <v>3.25</v>
+      </c>
+      <c r="F8">
+        <v>4.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8">
+        <v>2.25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9">
+        <v>437</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>4.5</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>3.5</v>
-      </c>
-      <c r="E10">
-        <v>3.25</v>
-      </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>2.25</v>
-      </c>
-      <c r="I10">
-        <v>3.25</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>2.75</v>
-      </c>
-      <c r="J11">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13">
-        <v>437</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13">
-        <v>609</v>
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" t="s">
-        <v>105</v>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>10.5</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" t="s">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>3.75</v>
+      </c>
+      <c r="C20">
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
+        <v>146</v>
+      </c>
+      <c r="G20">
+        <v>6.5</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -1330,204 +1489,51 @@
         <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>10.5</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <v>1.5</v>
-      </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>1.5</v>
-      </c>
-      <c r="J24">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>3.75</v>
-      </c>
-      <c r="C25">
-        <v>3.5</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>6.5</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>2.5</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26">
-        <v>2.5</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27">
-        <v>185</v>
-      </c>
-      <c r="J27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H23" t="s">
         <v>75</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I23" t="s">
         <v>109</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J23" t="s">
         <v>113</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K23" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/DummyData/DummyData.xlsx
+++ b/DummyData/DummyData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaitlin\Dropbox\University\CSCI 344\_Term Project\DummyData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\School\CSCI 344\Projects\FinalProject\DummyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,10 +480,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,13 +514,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,16 +838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.68359375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -906,7 +917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -941,7 +952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -976,7 +987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -1116,11 +1127,11 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>148</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
@@ -1151,7 +1162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -1186,7 +1197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1267,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1302,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -1501,7 +1512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -1537,7 +1548,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DummyData/DummyData.xlsx
+++ b/DummyData/DummyData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\School\CSCI 344\Projects\FinalProject\DummyData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaitlin\Dropbox\University\CSCI 344\_Term Project\DummyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>name</t>
   </si>
@@ -474,6 +474,51 @@
   </si>
   <si>
     <t>image2</t>
+  </si>
+  <si>
+    <t>Hiker's Waistcoat</t>
+  </si>
+  <si>
+    <t>The Fibre Company</t>
+  </si>
+  <si>
+    <t>Kelbourne Woollens</t>
+  </si>
+  <si>
+    <t>Vest</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>4.5 - 5.0</t>
+  </si>
+  <si>
+    <t>700 - 900</t>
+  </si>
+  <si>
+    <t>http://images4-cdn.ravelrycache.com/uploads/FibreCompany/143369516/hikers2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/FibreCompany/143369517/hikers1_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Nordic Trail</t>
+  </si>
+  <si>
+    <t>Elizabeth Smith</t>
+  </si>
+  <si>
+    <t>The Brown Stitch</t>
+  </si>
+  <si>
+    <t>460 - 780</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/elizknits/142073883/Nordic-Trail_1_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/elizknits/142073896/Nordic-Trail_2_medium.jpg</t>
   </si>
 </sst>
 </file>
@@ -518,9 +563,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -836,19 +887,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.68359375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.41796875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -882,8 +933,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -917,8 +968,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -952,8 +1003,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -987,8 +1038,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -1022,78 +1073,78 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>4.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3.25</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>4.5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>2.25</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B9" t="s">
@@ -1127,8 +1178,8 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1152,7 +1203,7 @@
       <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J10" t="s">
@@ -1162,8 +1213,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B11" t="s">
@@ -1187,7 +1238,7 @@
       <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J11" t="s">
@@ -1197,8 +1248,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
@@ -1232,8 +1283,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -1267,8 +1318,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -1302,8 +1353,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
@@ -1337,8 +1388,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -1372,78 +1423,78 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>13</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>10.5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>3.75</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>3.5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>6.5</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B21" t="s">
@@ -1477,23 +1528,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G22" t="s">
@@ -1502,7 +1553,7 @@
       <c r="H22" t="s">
         <v>74</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J22" t="s">
@@ -1512,8 +1563,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B23" t="s">
@@ -1537,7 +1588,7 @@
       <c r="H23" t="s">
         <v>75</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="J23" t="s">
@@ -1545,13 +1596,131 @@
       </c>
       <c r="K23" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="I10" r:id="rId2"/>
+    <hyperlink ref="I22" r:id="rId3"/>
+    <hyperlink ref="I23" r:id="rId4"/>
+    <hyperlink ref="I11" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="F22" r:id="rId8"/>
+    <hyperlink ref="B33" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/DummyData/DummyData.xlsx
+++ b/DummyData/DummyData.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaitlin\Dropbox\University\CSCI 344\_Term Project\DummyData\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="425">
   <si>
     <t>name</t>
   </si>
@@ -519,13 +519,793 @@
   </si>
   <si>
     <t>https://images4-b.ravelrycache.com/uploads/elizknits/142073896/Nordic-Trail_2_medium.jpg</t>
+  </si>
+  <si>
+    <t>Shawls</t>
+  </si>
+  <si>
+    <t>Sweaters</t>
+  </si>
+  <si>
+    <t>Vests</t>
+  </si>
+  <si>
+    <t>Hats</t>
+  </si>
+  <si>
+    <t>Baa-ble Hat</t>
+  </si>
+  <si>
+    <t>Donna Smith</t>
+  </si>
+  <si>
+    <t>Shetland Wool Week Annual 2015</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>4.0, 4.5</t>
+  </si>
+  <si>
+    <t>330 - 404</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/Peeriedonna/298052615/image_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/Peeriedonna/298052390/image_medium.jpg</t>
+  </si>
+  <si>
+    <t>Scarves</t>
+  </si>
+  <si>
+    <t>Blankets</t>
+  </si>
+  <si>
+    <t>Barley</t>
+  </si>
+  <si>
+    <t>tincanknits</t>
+  </si>
+  <si>
+    <t>Tin Can Knits</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>4.0, 5.0</t>
+  </si>
+  <si>
+    <t>70 - 170</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/tincanknits/177099058/SC-barley-02_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/tincanknits/177099038/SC-barley-06_medium.jpg</t>
+  </si>
+  <si>
+    <t>Find Your Fade</t>
+  </si>
+  <si>
+    <t>Andrea Mowry</t>
+  </si>
+  <si>
+    <t>Drea Renee Knits</t>
+  </si>
+  <si>
+    <t>"3.5"</t>
+  </si>
+  <si>
+    <t>1500 - 1600</t>
+  </si>
+  <si>
+    <t>http://images4-cdn.ravelrycache.com/uploads/dreareneeknits/413536689/17.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/dreareneeknits/413535621/5_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Nuvem</t>
+  </si>
+  <si>
+    <t>Martina Behm</t>
+  </si>
+  <si>
+    <t>Strickmich!</t>
+  </si>
+  <si>
+    <t>1728 - 1739</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/Maltina/73919781/IMG_5602_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/Maltina/73919636/IMG_5584_medium.jpg</t>
+  </si>
+  <si>
+    <t>Nymphalidea</t>
+  </si>
+  <si>
+    <t>Melinda VerMeer</t>
+  </si>
+  <si>
+    <t>Knitty, Deep Fall 2013</t>
+  </si>
+  <si>
+    <t>Light Fingering</t>
+  </si>
+  <si>
+    <t>450 - 500 yards</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/gldelx/182730270/Nymphalidea9_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/gldelx/182728945/Nymphalidea3_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Haruni</t>
+  </si>
+  <si>
+    <t>Emily Ross</t>
+  </si>
+  <si>
+    <t>knitterain</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/knitterain/419099975/Haruni-171-web-2048_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/knitterain/419099971/Haruni-144-web-2048_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Windermere</t>
+  </si>
+  <si>
+    <t>Marie Wallin</t>
+  </si>
+  <si>
+    <t>Lakeland: Collection Two</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>2.75, 3.25</t>
+  </si>
+  <si>
+    <t>1862 - 2940</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/somebunnyslove/243510237/WINDERMERE_SHOT_01_099_medium2.png</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/somebunnyslove/243510226/WINDERMERE_SHOT_01_038_medium2.png</t>
+  </si>
+  <si>
+    <t>Paper Dolls</t>
+  </si>
+  <si>
+    <t>Kate Davies</t>
+  </si>
+  <si>
+    <t>2 1/2, 3, 4</t>
+  </si>
+  <si>
+    <t>3.0, 3.25, 3.5</t>
+  </si>
+  <si>
+    <t>450 - 750</t>
+  </si>
+  <si>
+    <t>http://images4-cdn.ravelrycache.com/uploads/wazz/168036992/paperdolls5.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/wazz/168036930/paperdolls3_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>Erin Ruth</t>
+  </si>
+  <si>
+    <t>knit me a song</t>
+  </si>
+  <si>
+    <t>3, 6</t>
+  </si>
+  <si>
+    <t>3.25, 4.0</t>
+  </si>
+  <si>
+    <t>200 - 236</t>
+  </si>
+  <si>
+    <t>http://farm5.static.flickr.com/4011/4199053816_657fdcbe3f_z.jpg</t>
+  </si>
+  <si>
+    <t>http://farm3.static.flickr.com/2567/4198300373_3ffeed1497_z.jpg</t>
+  </si>
+  <si>
+    <t>Regular Guy Beanie</t>
+  </si>
+  <si>
+    <t>Chuck Wright</t>
+  </si>
+  <si>
+    <t>Yarnman Knits</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3319/3261355098_489c6d10c6_z.jpg</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3448/3267726051_5f73fb6048_z.jpg</t>
+  </si>
+  <si>
+    <t>Star Crossed Slouchy Beret</t>
+  </si>
+  <si>
+    <t>Natalie Larson</t>
+  </si>
+  <si>
+    <t>Natalie Larson Designs</t>
+  </si>
+  <si>
+    <t>"8.0"</t>
+  </si>
+  <si>
+    <t>150 - 200</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3036/2715405787_14755d401e_z.jpg</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3245/2953965375_cf582bdc72_z.jpg</t>
+  </si>
+  <si>
+    <t>Pandamonium</t>
+  </si>
+  <si>
+    <t>Karin Michele</t>
+  </si>
+  <si>
+    <t>i K n i t 2 P u r l 2</t>
+  </si>
+  <si>
+    <t>410 - 450</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/iknit2purl2/400634379/IMG_5913_medium2.JPG</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/aljanet/433275065/IMG_2500_medium2.JPG</t>
+  </si>
+  <si>
+    <t>Shoreline Vest</t>
+  </si>
+  <si>
+    <t>Carrie Bostick Hodge</t>
+  </si>
+  <si>
+    <t>Swoon Maine</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>3.5, 3.75</t>
+  </si>
+  <si>
+    <t>645 - 1221</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/madder/335945304/DSC_7535_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/madder/335935408/DSC_7522R_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Shawl Collar Vest</t>
+  </si>
+  <si>
+    <t>Jennifer Miller</t>
+  </si>
+  <si>
+    <t>ottermoondesigns</t>
+  </si>
+  <si>
+    <t>440 - 720</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/otterness/63807286/shawl_vest_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/otterness/63807471/DSC02118_medium2.JPG</t>
+  </si>
+  <si>
+    <t>Anna Vest</t>
+  </si>
+  <si>
+    <t>Karen Templer</t>
+  </si>
+  <si>
+    <t>Farm to Needle</t>
+  </si>
+  <si>
+    <t>4, 5, 7</t>
+  </si>
+  <si>
+    <t>3.5, 3.75, 4.5</t>
+  </si>
+  <si>
+    <t>520 - 968</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/GriffinCreek/328272074/Teaser-17_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/GriffinCreek/328271723/Teaser-13_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Stephen West</t>
+  </si>
+  <si>
+    <t>Wool People Vol. 1</t>
+  </si>
+  <si>
+    <t>730 - 1130</t>
+  </si>
+  <si>
+    <t>http://farm9.static.flickr.com/8370/8517321167_0dfc6f5b7f_z.jpg</t>
+  </si>
+  <si>
+    <t>http://farm9.static.flickr.com/8512/8517318421_1143a24b6b_b.jpg</t>
+  </si>
+  <si>
+    <t>Buttonbox</t>
+  </si>
+  <si>
+    <t>Elizabeth McCarten</t>
+  </si>
+  <si>
+    <t>Knitty</t>
+  </si>
+  <si>
+    <t>"4.5"</t>
+  </si>
+  <si>
+    <t>561 - 1373</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/emccarten/151695435/IMG_5371_medium2.JPG</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/emccarten/151634600/IMG_3829_medium2.JPG</t>
+  </si>
+  <si>
+    <t>Dr. G's Memory Vest</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3124/2332182340_c465cc64e8_z.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/elisann/202542274/DSC_1347_medium2.jpg</t>
+  </si>
+  <si>
+    <t>ZickZack Scarf</t>
+  </si>
+  <si>
+    <t>Christy Kamm</t>
+  </si>
+  <si>
+    <t>Christy Kamm Designs</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/JadziaDax/269808696/missonistyle2_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/JadziaDax/269808695/zickzack2_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Gallatin Scarf</t>
+  </si>
+  <si>
+    <t>Kris Basta</t>
+  </si>
+  <si>
+    <t>Kriskrafter</t>
+  </si>
+  <si>
+    <t>"6.5"</t>
+  </si>
+  <si>
+    <t>190 - 200</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/kriskrafter/180501259/MVC-009L_medium2.JPG</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/Christinastrikker/429874263/image_medium2.jpg</t>
+  </si>
+  <si>
+    <t>No-Purl Ribbed Scarf</t>
+  </si>
+  <si>
+    <t>436 - 545</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/purlsoho/252648850/no-purl-ribbed-scarf-600-B-1-2-340x441_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/purlsoho/425773695/no-purl-ribbed-scarf-2017-600-2_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Irish Hiking Scarf</t>
+  </si>
+  <si>
+    <t>Adrian Bizilia</t>
+  </si>
+  <si>
+    <t>Hello Yarn</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3422/3349495151_d5861eccea_z.jpg</t>
+  </si>
+  <si>
+    <t>http://farm1.static.flickr.com/32/61028885_d22b0484df_z.jpg</t>
+  </si>
+  <si>
+    <t>Architexture</t>
+  </si>
+  <si>
+    <t>Jennifer Weissman</t>
+  </si>
+  <si>
+    <t>Designs by Jennifer Weissman</t>
+  </si>
+  <si>
+    <t>"3.75"</t>
+  </si>
+  <si>
+    <t>775 - 1025</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/shadystroll/290327621/DSC_0188_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/shadystroll/290327648/DSC_0168_medium2.JPG</t>
+  </si>
+  <si>
+    <t>Wildheart</t>
+  </si>
+  <si>
+    <t>Janina Kallio</t>
+  </si>
+  <si>
+    <t>Woolenberry</t>
+  </si>
+  <si>
+    <t>395 - 437</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/JaninaKallio/431707868/Wildheart_by_Janina_Kallio_22_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/JaninaKallio/431707865/Wildheart_by_Janina_Kallio_21_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Baker Street Scarf</t>
+  </si>
+  <si>
+    <t>Toni Carr</t>
+  </si>
+  <si>
+    <t>Geek Knits</t>
+  </si>
+  <si>
+    <t>360 - 375</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/JoanofDark/307719825/Baker_Street_Scarf_Main_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/JoanofDark/307720212/knitty_scarf_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Hermione's Everyday Socks</t>
+  </si>
+  <si>
+    <t>Erica Lueder</t>
+  </si>
+  <si>
+    <t>Dreams in Fiber</t>
+  </si>
+  <si>
+    <t>350 - 400</t>
+  </si>
+  <si>
+    <t>http://farm4.static.flickr.com/3240/3704532404_227f070d7a_z.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/snippetsandstash/102807366/IMG_9323edit_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Blueberry Waffle Socks</t>
+  </si>
+  <si>
+    <t>Sandy Turner</t>
+  </si>
+  <si>
+    <t>Knitting on the Net</t>
+  </si>
+  <si>
+    <t>280 - 330</t>
+  </si>
+  <si>
+    <t>http://farm5.static.flickr.com/4066/4210895156_95a6fcb48e_z.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/Avalanche/48637691/Mistletoes4_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Zigzagular Socks</t>
+  </si>
+  <si>
+    <t>Susie White</t>
+  </si>
+  <si>
+    <t>Prairie Girl Designs</t>
+  </si>
+  <si>
+    <t>360 - 425</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/JennyF/238110600/zlah_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/knitastic/235038815/Zigzagular_1_medium.jpg</t>
+  </si>
+  <si>
+    <t>Vanilla is the New Black</t>
+  </si>
+  <si>
+    <t>Anneh Fletcher</t>
+  </si>
+  <si>
+    <t>A Vanilla Pair</t>
+  </si>
+  <si>
+    <t>300 - 440</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/anneh/359345003/IMG_2968_medium2.JPG</t>
+  </si>
+  <si>
+    <t>http://farm8.static.flickr.com/7543/26597788803_0a7f7034bb_b.jpg</t>
+  </si>
+  <si>
+    <t>Dropping Madness Socks</t>
+  </si>
+  <si>
+    <t>Sock Madness 11</t>
+  </si>
+  <si>
+    <t>Maria Ekblad</t>
+  </si>
+  <si>
+    <t>361 - 481</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/stickfia/437115506/P1000123b_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/stickfia/437115992/P1000126b_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Garter Squish</t>
+  </si>
+  <si>
+    <t>Stephen West Designs</t>
+  </si>
+  <si>
+    <t>"10.0"</t>
+  </si>
+  <si>
+    <t>3240 - 3245</t>
+  </si>
+  <si>
+    <t>http://farm9.static.flickr.com/8212/8289449722_f8733c990b_z.jpg</t>
+  </si>
+  <si>
+    <t>http://farm9.static.flickr.com/8483/8288387413_1908fe7c67_z.jpg</t>
+  </si>
+  <si>
+    <t>Hue Shift Afghan</t>
+  </si>
+  <si>
+    <t>Kerin Dimeler-Laurence</t>
+  </si>
+  <si>
+    <t>Knit Picks</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/KPStaff/327855449/41112220_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/KPStaff/327855333/55773220_6_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Garter Rib Baby Blanket</t>
+  </si>
+  <si>
+    <t>Orange Flower Yarn</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/sketchbook/26657359/blanket_1_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/SusanneS-vV/102976363/DSC_0841_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Diagonal Comfort Blanket</t>
+  </si>
+  <si>
+    <t>Lion Brand Yarn</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/mckenzif/106113432/90029ada_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/mtsharon/118230568/yarma_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Carson Throw</t>
+  </si>
+  <si>
+    <t>Rosemary Hill</t>
+  </si>
+  <si>
+    <t>Home Is Where the Heart Is</t>
+  </si>
+  <si>
+    <t>2800 - 3325</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/Romi/192310202/8-CT_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/theirmama4sure/372077071/IMG_1001_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Baby's First Principles</t>
+  </si>
+  <si>
+    <t>Amy Manning</t>
+  </si>
+  <si>
+    <t>Doomsday Knits: Projects for the Apocalypse and After</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/alextinsley/187262218/NW14_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/alextinsley/187262213/IMG_2390_medium.jpg</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>50 - 200</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/tincanknits/187135959/SC-maize-02_medium.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/tincanknits/187135961/SC-maize-05_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Tartan &amp; Tweed Mitts</t>
+  </si>
+  <si>
+    <t>Jen Joyce</t>
+  </si>
+  <si>
+    <t>Jenjoyce Designs</t>
+  </si>
+  <si>
+    <t>3.25, 3.5, 3.75, 4.0</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>130 - 150</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/Jenjay/281787200/jenjoycedesign004_medium2.JPG</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/Jenjay/287209169/026jenjoycedesign_medium2.JPG</t>
+  </si>
+  <si>
+    <t>Lambing Mitts</t>
+  </si>
+  <si>
+    <t>Veronika Jobe</t>
+  </si>
+  <si>
+    <t>Tolt Yarn and Wool</t>
+  </si>
+  <si>
+    <t>115 - 150</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/veronika/284538768/FullSizeRender-2_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/GriffinCreek/284519625/IMG_8014_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Treads</t>
+  </si>
+  <si>
+    <t>Victoria Anne Baker</t>
+  </si>
+  <si>
+    <t>RainDrops</t>
+  </si>
+  <si>
+    <t>http://farm3.static.flickr.com/2766/4494618241_ffcf50d84e_z.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/Lolotte1409/47408797/mittensfinies_003_medium2.jpg</t>
+  </si>
+  <si>
+    <t>Man Hands</t>
+  </si>
+  <si>
+    <t>Shireen Nadir</t>
+  </si>
+  <si>
+    <t>The Blue Brick</t>
+  </si>
+  <si>
+    <t>140 - 160</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/shireenn/220824557/3V8A3778_medium2.jpg</t>
+  </si>
+  <si>
+    <t>http://images4-cdn.ravelrycache.com/uploads/shireenn/220824561/DSCF1930.jpg</t>
+  </si>
+  <si>
+    <t>Masonry Mitts</t>
+  </si>
+  <si>
+    <t>Vera Brosgol</t>
+  </si>
+  <si>
+    <t>Vera Brosgol Designs</t>
+  </si>
+  <si>
+    <t>https://images4-b.ravelrycache.com/uploads/verabee/215178590/armymitts4_medium2.jpg</t>
+  </si>
+  <si>
+    <t>https://images4-e.ravelrycache.com/uploads/verabee/215178689/armymitts2_medium2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,12 +1314,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,22 +1345,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -887,19 +1676,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -912,29 +1706,23 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -947,29 +1735,23 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -982,29 +1764,23 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -1017,29 +1793,23 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -1052,99 +1822,81 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>4.5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B9" t="s">
@@ -1157,32 +1909,26 @@
         <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9">
-        <v>437</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
@@ -1192,29 +1938,23 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B11" t="s">
@@ -1227,500 +1967,2088 @@
         <v>85</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" t="s">
+        <v>240</v>
+      </c>
+      <c r="I24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" t="s">
+        <v>281</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>276</v>
+      </c>
+      <c r="H36" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>277</v>
+      </c>
+      <c r="H37" t="s">
+        <v>283</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="1">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" t="s">
+        <v>278</v>
+      </c>
+      <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" t="s">
+        <v>319</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>299</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" t="s">
+        <v>315</v>
+      </c>
+      <c r="H52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53">
+        <v>831</v>
+      </c>
+      <c r="D53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E53" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>316</v>
+      </c>
+      <c r="H53" t="s">
+        <v>322</v>
+      </c>
+      <c r="I53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" t="s">
+        <v>317</v>
+      </c>
+      <c r="H54" t="s">
+        <v>323</v>
+      </c>
+      <c r="I54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" t="s">
+        <v>302</v>
+      </c>
+      <c r="E55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" t="s">
+        <v>318</v>
+      </c>
+      <c r="H55" t="s">
+        <v>324</v>
+      </c>
+      <c r="I55" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>331</v>
+      </c>
+      <c r="F57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" t="s">
+        <v>343</v>
+      </c>
+      <c r="H57" t="s">
+        <v>349</v>
+      </c>
+      <c r="I57" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F58" t="s">
+        <v>338</v>
+      </c>
+      <c r="G58" t="s">
+        <v>344</v>
+      </c>
+      <c r="H58" t="s">
+        <v>350</v>
+      </c>
+      <c r="I58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" t="s">
+        <v>339</v>
+      </c>
+      <c r="G59" t="s">
+        <v>345</v>
+      </c>
+      <c r="H59" t="s">
+        <v>351</v>
+      </c>
+      <c r="I59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>437</v>
+      </c>
+      <c r="E64" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" t="s">
+        <v>346</v>
+      </c>
+      <c r="H64" t="s">
+        <v>352</v>
+      </c>
+      <c r="I64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" t="s">
+        <v>341</v>
+      </c>
+      <c r="G65" t="s">
+        <v>347</v>
+      </c>
+      <c r="H65" t="s">
+        <v>353</v>
+      </c>
+      <c r="I65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="E66" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" t="s">
+        <v>342</v>
+      </c>
+      <c r="G66" t="s">
+        <v>348</v>
+      </c>
+      <c r="H66" t="s">
+        <v>354</v>
+      </c>
+      <c r="I66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" t="s">
+        <v>367</v>
+      </c>
+      <c r="F68" t="s">
+        <v>372</v>
+      </c>
+      <c r="G68" t="s">
+        <v>376</v>
+      </c>
+      <c r="H68" t="s">
+        <v>380</v>
+      </c>
+      <c r="I68" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
+        <v>368</v>
+      </c>
+      <c r="F69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" t="s">
+        <v>377</v>
+      </c>
+      <c r="H69" t="s">
+        <v>381</v>
+      </c>
+      <c r="I69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" t="s">
+        <v>369</v>
+      </c>
+      <c r="F70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G70" t="s">
+        <v>377</v>
+      </c>
+      <c r="H70" t="s">
+        <v>382</v>
+      </c>
+      <c r="I70" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>363</v>
+      </c>
+      <c r="E74">
+        <v>3.75</v>
+      </c>
+      <c r="F74">
+        <v>4.5</v>
+      </c>
+      <c r="G74">
+        <v>4.5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>147</v>
+      </c>
+      <c r="I74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75">
+        <v>609</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" t="s">
+        <v>364</v>
+      </c>
+      <c r="E75">
+        <v>3276</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>828</v>
+      </c>
+      <c r="H75" t="s">
+        <v>383</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>365</v>
+      </c>
+      <c r="E76" t="s">
+        <v>371</v>
+      </c>
+      <c r="F76" t="s">
+        <v>374</v>
+      </c>
+      <c r="G76" t="s">
+        <v>378</v>
+      </c>
+      <c r="H76" t="s">
+        <v>384</v>
+      </c>
+      <c r="I76" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" t="s">
+        <v>366</v>
+      </c>
+      <c r="E77" t="s">
+        <v>370</v>
+      </c>
+      <c r="F77" t="s">
+        <v>375</v>
+      </c>
+      <c r="G77" t="s">
+        <v>379</v>
+      </c>
+      <c r="H77" t="s">
+        <v>385</v>
+      </c>
+      <c r="I77" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>391</v>
+      </c>
+      <c r="E79" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" t="s">
+        <v>409</v>
+      </c>
+      <c r="H79" t="s">
+        <v>414</v>
+      </c>
+      <c r="I79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" t="s">
+        <v>396</v>
+      </c>
+      <c r="F80" t="s">
+        <v>404</v>
+      </c>
+      <c r="G80" t="s">
+        <v>410</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="I80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" t="s">
+        <v>405</v>
+      </c>
+      <c r="G81" t="s">
+        <v>411</v>
+      </c>
+      <c r="H81" t="s">
+        <v>416</v>
+      </c>
+      <c r="I81" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>399</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+      <c r="I84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85">
+        <v>4.5</v>
+      </c>
+      <c r="G85">
+        <v>3.75</v>
+      </c>
+      <c r="H85">
+        <v>4.5</v>
+      </c>
+      <c r="I85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>392</v>
+      </c>
+      <c r="E86" t="s">
+        <v>400</v>
+      </c>
+      <c r="F86" t="s">
+        <v>406</v>
+      </c>
+      <c r="G86" t="s">
+        <v>244</v>
+      </c>
+      <c r="H86" t="s">
+        <v>417</v>
+      </c>
+      <c r="I86">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E87" t="s">
+        <v>401</v>
+      </c>
+      <c r="F87" t="s">
+        <v>407</v>
+      </c>
+      <c r="G87" t="s">
+        <v>412</v>
+      </c>
+      <c r="H87" t="s">
+        <v>418</v>
+      </c>
+      <c r="I87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="2">
-        <v>6</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>185</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
+      <c r="D88" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" t="s">
+        <v>402</v>
+      </c>
+      <c r="F88" t="s">
+        <v>408</v>
+      </c>
+      <c r="G88" t="s">
+        <v>413</v>
+      </c>
+      <c r="H88" t="s">
+        <v>419</v>
+      </c>
+      <c r="I88" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="I10" r:id="rId2"/>
-    <hyperlink ref="I22" r:id="rId3"/>
-    <hyperlink ref="I23" r:id="rId4"/>
-    <hyperlink ref="I11" r:id="rId5"/>
-    <hyperlink ref="C22" r:id="rId6"/>
-    <hyperlink ref="E22" r:id="rId7"/>
-    <hyperlink ref="F22" r:id="rId8"/>
-    <hyperlink ref="B33" r:id="rId9"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>